--- a/biology/Zoologie/Doleschallia/Doleschallia.xlsx
+++ b/biology/Zoologie/Doleschallia/Doleschallia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Doleschallia regroupe des insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Nymphalinae qui résident en Océanie.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ailes fermées les Doleschallia sont semblables à des feuilles d'où leur nom de leaf en anglais.
 </t>
@@ -542,16 +556,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Doleschallia bisaltide(Cramer, [1777])
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Doleschallia bisaltide(Cramer, )
 Doleschallia bisaltide bisaltide
 Doleschallia bisaltide apameia Fruhstorfer
 Doleschallia bisaltide australis C. &amp; R. Felder, 1867
 Doleschallia bisaltide cethega Fruhstorfer
 Doleschallia bisaltide ceylonica Fruhstorfer; au Sri Lanka
 Doleschallia bisaltide continentalis Fruhstorfer, 1899
-Doleschallia bisaltide denisi (Viette 1950) en Nouvelle-Calédonie[1].
+Doleschallia bisaltide denisi (Viette 1950) en Nouvelle-Calédonie.
 Doleschallia bisaltide gurelca Grose-Smith;
 Doleschallia bisaltide herrichi Butler; aux Nouvelles-Hébrides.
 Doleschallia bisaltide indica Moore, 1899;
@@ -560,7 +576,7 @@
 Doleschallia bisaltide nasica Fruhstorfer, 1907;
 Doleschallia bisaltide nigromarginata Joicey et Noakes, 1915;
 Doleschallia bisaltide philippines Fruhstorfer
-Doleschallia bisaltide polibete (Cramer, [1779])
+Doleschallia bisaltide polibete (Cramer, )
 Doleschallia bisaltide pratipa C. &amp; R. Felder, 1860
 Doleschallia bisaltide rennellensis Howarth
 Doleschallia bisaltide scapus Fruhstorfer
